--- a/reportes.xlsx
+++ b/reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Accidente</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>damn</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4.858047097862472</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-74.07229806514576</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-11-13 14:17:08</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reportes.xlsx
+++ b/reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,122 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tráfico pesado</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>eeeeee</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4.873884452064224</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-74.03782881343682</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-11-13 17:12:27</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Obstrucción</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rtrtrtr</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.873369135084946</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-74.03789817478737</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-11-13 17:14:35</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tráfico pesado</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ddsdasas</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.87304</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-74.03791</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-11-13 17:25:10</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Accidente</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1233333321332231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4.873106115421405</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-74.03796509618449</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-11-13 17:27:10</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
